--- a/Database/Data Dictioanry/Data Dictionary (B).xlsx
+++ b/Database/Data Dictioanry/Data Dictionary (B).xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="818" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NDRRMC Admin" sheetId="1" r:id="rId1"/>
     <sheet name="LGU User" sheetId="3" r:id="rId2"/>
-    <sheet name="Typhoon" sheetId="4" r:id="rId3"/>
-    <sheet name="Earthquake" sheetId="5" r:id="rId4"/>
-    <sheet name="Volcanic Eruption" sheetId="6" r:id="rId5"/>
-    <sheet name="Incident" sheetId="8" r:id="rId6"/>
+    <sheet name="Advisory" sheetId="4" r:id="rId3"/>
+    <sheet name="City Information" sheetId="5" r:id="rId4"/>
+    <sheet name="City Questionnaire" sheetId="6" r:id="rId5"/>
+    <sheet name="Suggested Supplies" sheetId="8" r:id="rId6"/>
     <sheet name="Supplies Needed" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="64">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -57,9 +57,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -114,46 +111,7 @@
     <t>MakatiMonitoring</t>
   </si>
   <si>
-    <t>M/CDRRMC Admin</t>
-  </si>
-  <si>
-    <t>TYPHOON</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date entered the par</t>
-  </si>
-  <si>
-    <t>landfall area</t>
-  </si>
-  <si>
     <t>id number</t>
-  </si>
-  <si>
-    <t>Typhoon name</t>
-  </si>
-  <si>
-    <t>Typhoon category</t>
-  </si>
-  <si>
-    <t>Date entered PAR</t>
-  </si>
-  <si>
-    <t>Landfall area</t>
-  </si>
-  <si>
-    <t>Haiyan</t>
-  </si>
-  <si>
-    <t>Super Typhoon</t>
-  </si>
-  <si>
-    <t>Province of Eastern Samar</t>
-  </si>
-  <si>
-    <t>EARTHQUAKE</t>
   </si>
   <si>
     <t>magnitude</t>
@@ -166,45 +124,9 @@
  Cebu City</t>
   </si>
   <si>
-    <t>date&amp;Time</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>VOLCANIC ERUPTIION</t>
-  </si>
-  <si>
-    <t>mountain name</t>
-  </si>
-  <si>
-    <t>date&amp;time</t>
-  </si>
-  <si>
-    <t>zambales, tarlac</t>
-  </si>
-  <si>
-    <t>Mount Pinatubo</t>
-  </si>
-  <si>
-    <t>type of incident</t>
-  </si>
-  <si>
-    <t>provine</t>
-  </si>
-  <si>
-    <t>city/municipality</t>
-  </si>
-  <si>
-    <t>barangay</t>
-  </si>
-  <si>
     <t>SUPPLIES NEEDED</t>
   </si>
   <si>
-    <t>name of equipment</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -220,31 +142,82 @@
     <t>mandaluyong</t>
   </si>
   <si>
-    <t>INCIDENT</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>possible causes</t>
-  </si>
-  <si>
-    <t>Landslide</t>
-  </si>
-  <si>
-    <t>Province of Cebu</t>
-  </si>
-  <si>
-    <t>Argao</t>
-  </si>
-  <si>
-    <t>due to heavy rain</t>
-  </si>
-  <si>
-    <t>big rocks on the road</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin's contact </t>
+  </si>
+  <si>
+    <t>LGU Admin</t>
+  </si>
+  <si>
+    <t>ADVISORY</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>disaster_category</t>
+  </si>
+  <si>
+    <t>advisory date</t>
+  </si>
+  <si>
+    <t>advisory subject</t>
+  </si>
+  <si>
+    <t>typhoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preparation for typhoon </t>
+  </si>
+  <si>
+    <t>CITY INFORMATION</t>
+  </si>
+  <si>
+    <t>region_name</t>
+  </si>
+  <si>
+    <t>city_name</t>
+  </si>
+  <si>
+    <t>no_of_brgy</t>
+  </si>
+  <si>
+    <t>CITY QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>city_information_id</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>city information id</t>
+  </si>
+  <si>
+    <t>near faultline</t>
+  </si>
+  <si>
+    <t>disaster_type</t>
+  </si>
+  <si>
+    <t>SUGGESTED SUPPLIES</t>
+  </si>
+  <si>
+    <t>equipment_name</t>
+  </si>
+  <si>
+    <t>requested_supplies</t>
   </si>
 </sst>
 </file>
@@ -296,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -319,11 +292,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,6 +352,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8">
         <v>1234</v>
@@ -658,13 +650,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="8">
         <v>123</v>
@@ -672,74 +664,97 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
         <v>30</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
         <v>30</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
         <v>30</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="18">
+        <v>11</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>9781324212</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,10 +771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +791,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -817,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11">
         <v>1234</v>
@@ -826,13 +841,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="11">
         <v>123</v>
@@ -840,74 +855,121 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10">
         <v>30</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="10">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>28</v>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10">
         <v>30</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="18">
+        <v>11</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="19">
+        <v>9781324212</v>
       </c>
     </row>
   </sheetData>
@@ -923,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +1004,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -983,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11">
         <v>1234</v>
@@ -992,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H3" s="11">
         <v>123</v>
@@ -1006,99 +1068,85 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10">
         <v>30</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="H4" s="20">
+        <v>42784</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10">
         <v>30</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10">
         <v>30</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="12">
-        <v>41584</v>
+        <v>45</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13">
-        <v>150</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1111,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:H5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1172,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11">
         <v>1234</v>
@@ -1181,13 +1229,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H3" s="11">
         <v>123</v>
@@ -1195,50 +1243,74 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10">
         <v>30</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H4" s="11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10">
         <v>30</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1252,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1344,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1313,7 +1385,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11">
         <v>1234</v>
@@ -1322,13 +1394,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H3" s="11">
         <v>123</v>
@@ -1336,72 +1408,52 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10">
         <v>30</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="10">
+        <v>1234</v>
+      </c>
       <c r="D5" s="10">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="F5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="H5" s="11">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1487,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1476,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11">
         <v>1234</v>
@@ -1485,156 +1537,64 @@
         <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H3" s="11">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10">
         <v>30</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10">
         <v>30</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="10">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="13">
-        <v>150</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1650,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1628,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1709,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11">
         <v>1234</v>
@@ -1718,13 +1678,13 @@
         <v>15</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H3" s="11">
         <v>123</v>
@@ -1732,34 +1692,34 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10">
         <v>30</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11">
         <v>1234</v>
@@ -1769,10 +1729,10 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -1780,26 +1740,26 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10">
         <v>30</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
